--- a/1. Laporan hasil/hasil prediksi titik panas M1.xlsx
+++ b/1. Laporan hasil/hasil prediksi titik panas M1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\1. Laporan hasil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5E95C2-FBD5-4347-8B5F-39EBF926A9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B272CE-03F1-42F3-BF71-D46B25A8FC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C02A4CBB-8A9A-4123-9B82-C805245BB621}"/>
   </bookViews>

--- a/1. Laporan hasil/hasil prediksi titik panas M1.xlsx
+++ b/1. Laporan hasil/hasil prediksi titik panas M1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\1. Laporan hasil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B272CE-03F1-42F3-BF71-D46B25A8FC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53BC7F-B8BA-4D57-A8AB-DF115D56815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C02A4CBB-8A9A-4123-9B82-C805245BB621}"/>
   </bookViews>
